--- a/results/ORG.xlsx
+++ b/results/ORG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6271,6 +6271,2100 @@
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>20</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>0.5543834567070007</v>
+      </c>
+      <c r="E120" t="n">
+        <v>13.46381592280667</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>14.10480191357945</v>
+      </c>
+      <c r="H120" t="n">
+        <v>52</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-33.33203206947832</v>
+      </c>
+      <c r="J120" t="n">
+        <v>34</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>15</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-9.230781470960522</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6409859907727835</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-22.69459739376719</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-23.33558338453998</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>72</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>0.6290246248245239</v>
+      </c>
+      <c r="E121" t="n">
+        <v>71.77848559339171</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>97.09329404388907</v>
+      </c>
+      <c r="H121" t="n">
+        <v>48</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-12.4293882109076</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>51</v>
+      </c>
+      <c r="M121" t="n">
+        <v>75.99766593937318</v>
+      </c>
+      <c r="N121" t="n">
+        <v>25.31480845049737</v>
+      </c>
+      <c r="O121" t="n">
+        <v>4.219180345981471</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-21.0956281045159</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>77</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>0.6645624041557312</v>
+      </c>
+      <c r="E122" t="n">
+        <v>70.0091492834616</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>86.55363975771144</v>
+      </c>
+      <c r="H122" t="n">
+        <v>43</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-8.021387065041298</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>46</v>
+      </c>
+      <c r="M122" t="n">
+        <v>66.58611004056054</v>
+      </c>
+      <c r="N122" t="n">
+        <v>16.54449047424984</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-3.423039242901055</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-19.9675297171509</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>102</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>0.8568410277366638</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.52615532902825</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>47.00538043298019</v>
+      </c>
+      <c r="H123" t="n">
+        <v>36</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-9.73454677266</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>21</v>
+      </c>
+      <c r="M123" t="n">
+        <v>29.203507072878</v>
+      </c>
+      <c r="N123" t="n">
+        <v>17.47922510395194</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-0.3226482561502451</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-17.80187336010219</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>120</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>1.152564644813538</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.69387230355178</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>16.71864342291668</v>
+      </c>
+      <c r="H124" t="n">
+        <v>52</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-9.038621155232867</v>
+      </c>
+      <c r="J124" t="n">
+        <v>30</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-3.947369645876733</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4.024771119364896</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-16.64124194942852</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-20.66601306879341</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>137</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>1.240401148796082</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.990822892198823</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>20.91936849579129</v>
+      </c>
+      <c r="H125" t="n">
+        <v>48</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-15.47986762046777</v>
+      </c>
+      <c r="J125" t="n">
+        <v>13</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>13</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-12.38387700657332</v>
+      </c>
+      <c r="N125" t="n">
+        <v>10.92854560359246</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-22.37469989877215</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-33.30324550236461</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>164</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>1.302735447883606</v>
+      </c>
+      <c r="E126" t="n">
+        <v>29.87666607766722</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>32.90409971561628</v>
+      </c>
+      <c r="H126" t="n">
+        <v>52</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-8.902099302305155</v>
+      </c>
+      <c r="J126" t="n">
+        <v>13</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>34</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4.428641405209324</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3.027433637949063</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-25.4480246724579</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-28.47545831040696</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>202</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>1.496861815452576</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36.51174479179733</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>37.57823244880005</v>
+      </c>
+      <c r="H127" t="n">
+        <v>52</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-4.166656323369243</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1.066487657002725</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>210</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>1.652785181999206</v>
+      </c>
+      <c r="E128" t="n">
+        <v>37.43954643516817</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>39.88075759210307</v>
+      </c>
+      <c r="H128" t="n">
+        <v>52</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-9.561606664332837</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>2.441211156934898</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>247</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>1.78796911239624</v>
+      </c>
+      <c r="E129" t="n">
+        <v>56.86338672774982</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>60.28834340330204</v>
+      </c>
+      <c r="H129" t="n">
+        <v>51</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-5.803566132189596</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>25</v>
+      </c>
+      <c r="M129" t="n">
+        <v>25.24280311485653</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3.424956675552217</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-31.62058361289329</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-35.04554028844551</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>289</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>2.51072883605957</v>
+      </c>
+      <c r="E130" t="n">
+        <v>19.91074718253953</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>32.79785194651673</v>
+      </c>
+      <c r="H130" t="n">
+        <v>41</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-4.390206257529146</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>12.8871047639772</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>329</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>3.270482540130615</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-8.90288376848147</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.948074070920772</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-16.21725528471059</v>
+      </c>
+      <c r="J131" t="n">
+        <v>52</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>16</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-10.17766634750993</v>
+      </c>
+      <c r="N131" t="n">
+        <v>10.85095783940224</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-1.274782579028459</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-12.1257404184307</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>405</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>3.368503332138061</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16.4086956835628</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>43.97215043370405</v>
+      </c>
+      <c r="H132" t="n">
+        <v>43</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-6.282724857995389</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>16</v>
+      </c>
+      <c r="M132" t="n">
+        <v>14.85970193495755</v>
+      </c>
+      <c r="N132" t="n">
+        <v>27.56345475014125</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-1.548993748605245</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-29.1124484987465</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>406</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>3.315595865249634</v>
+      </c>
+      <c r="E133" t="n">
+        <v>23.56783824563515</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>46.26953590874396</v>
+      </c>
+      <c r="H133" t="n">
+        <v>42</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.9308525219860549</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>15</v>
+      </c>
+      <c r="M133" t="n">
+        <v>16.69253564687945</v>
+      </c>
+      <c r="N133" t="n">
+        <v>22.70169766310881</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-6.875302598755699</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-29.57700026186451</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>433</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>4.118669509887695</v>
+      </c>
+      <c r="E134" t="n">
+        <v>73.98634740056008</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>80.97247373842195</v>
+      </c>
+      <c r="H134" t="n">
+        <v>51</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-16.28414553149251</v>
+      </c>
+      <c r="J134" t="n">
+        <v>32</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>8</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-0.9740229668944956</v>
+      </c>
+      <c r="N134" t="n">
+        <v>6.986126337861876</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-74.96037036745457</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-81.94649670531645</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>434</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>4.305881500244141</v>
+      </c>
+      <c r="E135" t="n">
+        <v>64.19431349949191</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>73.10411577121397</v>
+      </c>
+      <c r="H135" t="n">
+        <v>50</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-19.92396045407019</v>
+      </c>
+      <c r="J135" t="n">
+        <v>31</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>7</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-5.27949450769472</v>
+      </c>
+      <c r="N135" t="n">
+        <v>8.909802271722057</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-69.47380800718663</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-78.38361027890869</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>447</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>4.633362770080566</v>
+      </c>
+      <c r="E136" t="n">
+        <v>58.99878623416234</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>78.87363032294817</v>
+      </c>
+      <c r="H136" t="n">
+        <v>51</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-25.5836517873946</v>
+      </c>
+      <c r="J136" t="n">
+        <v>18</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>13</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-17.41247126388283</v>
+      </c>
+      <c r="N136" t="n">
+        <v>19.87484408878584</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-76.41125749804516</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-96.28610158683099</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>477</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>4.370802879333496</v>
+      </c>
+      <c r="E137" t="n">
+        <v>66.61738436204689</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>89.61880509557183</v>
+      </c>
+      <c r="H137" t="n">
+        <v>21</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-3.134801199408317</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>40</v>
+      </c>
+      <c r="M137" t="n">
+        <v>44.84768996833816</v>
+      </c>
+      <c r="N137" t="n">
+        <v>23.00142073352494</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-21.76969439370873</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-44.77111512723367</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>553</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>7.628467082977295</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.117063605544549</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>12.12494550782513</v>
+      </c>
+      <c r="H138" t="n">
+        <v>15</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-12.14478163546093</v>
+      </c>
+      <c r="J138" t="n">
+        <v>33</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>30</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3.90386831399192</v>
+      </c>
+      <c r="N138" t="n">
+        <v>10.00788190228058</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.786804708447371</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-8.221077193833208</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>567</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>8.419916152954102</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-3.393075621236658</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.585507557218725</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-20.40293166974937</v>
+      </c>
+      <c r="J139" t="n">
+        <v>19</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>16</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-5.862810884499829</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4.978583178455383</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-2.469735263263171</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-7.448318441718555</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>603</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>7.81947135925293</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-10.17127050934774</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.15096696012718</v>
+      </c>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-21.14913171099216</v>
+      </c>
+      <c r="J140" t="n">
+        <v>47</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>23</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5.849077544329949</v>
+      </c>
+      <c r="N140" t="n">
+        <v>23.32223746947492</v>
+      </c>
+      <c r="O140" t="n">
+        <v>16.02034805367769</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-7.30188941579723</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>604</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>7.873568534851074</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-15.17262826526292</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>12.37353704360996</v>
+      </c>
+      <c r="H141" t="n">
+        <v>29</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-21.69089485803477</v>
+      </c>
+      <c r="J141" t="n">
+        <v>46</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>22</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5.121816949661671</v>
+      </c>
+      <c r="N141" t="n">
+        <v>27.54616530887289</v>
+      </c>
+      <c r="O141" t="n">
+        <v>20.29444521492459</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-7.251720093948292</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>616</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>8.360442161560059</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-14.35718393043382</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.829420061604602</v>
+      </c>
+      <c r="H142" t="n">
+        <v>17</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-26.2512562944315</v>
+      </c>
+      <c r="J142" t="n">
+        <v>34</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>10</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-0.9999932698793221</v>
+      </c>
+      <c r="N142" t="n">
+        <v>20.18660399203842</v>
+      </c>
+      <c r="O142" t="n">
+        <v>13.3571906605545</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-6.829413331483924</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>631</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>8.488140106201172</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-16.2329250398294</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4.237292781029338</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-27.36075294189908</v>
+      </c>
+      <c r="J143" t="n">
+        <v>19</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>6</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-2.058084638322064</v>
+      </c>
+      <c r="N143" t="n">
+        <v>20.47021782085874</v>
+      </c>
+      <c r="O143" t="n">
+        <v>14.17484040150734</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-6.295377419351402</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>667</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>7.473930358886719</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-18.91251149676968</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.52834513307753</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-28.37511854049977</v>
+      </c>
+      <c r="J144" t="n">
+        <v>49</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>14</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-8.571377713671485</v>
+      </c>
+      <c r="N144" t="n">
+        <v>24.44085662984721</v>
+      </c>
+      <c r="O144" t="n">
+        <v>10.34113378309819</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-14.09972284674901</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>728</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>6.675169944763184</v>
+      </c>
+      <c r="E145" t="n">
+        <v>23.14122178356702</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>26.45099967257251</v>
+      </c>
+      <c r="H145" t="n">
+        <v>37</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-10.35044102143433</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>25</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.568686447440025</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3.309777889005488</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-21.57253533612699</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-24.88231322513248</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>781</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>8.38416862487793</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-13.40908620409994</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13.28803151430503</v>
+      </c>
+      <c r="H146" t="n">
+        <v>29</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-28.15541066248153</v>
+      </c>
+      <c r="J146" t="n">
+        <v>43</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>22</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-2.034104090821092</v>
+      </c>
+      <c r="N146" t="n">
+        <v>26.69711771840497</v>
+      </c>
+      <c r="O146" t="n">
+        <v>11.37498211327885</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-15.32213560512612</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>791</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>8.622866630554199</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-10.72994208741667</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>10.15199470102116</v>
+      </c>
+      <c r="H147" t="n">
+        <v>19</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-30.14421101487595</v>
+      </c>
+      <c r="J147" t="n">
+        <v>33</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>12</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-4.745993881038929</v>
+      </c>
+      <c r="N147" t="n">
+        <v>20.88193678843783</v>
+      </c>
+      <c r="O147" t="n">
+        <v>5.98394820637774</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-14.89798858206009</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>842</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>7.50026273727417</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-51.81394898186436</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.336516595936067</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-67.62804842065948</v>
+      </c>
+      <c r="J148" t="n">
+        <v>40</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>10</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-6.698551756412647</v>
+      </c>
+      <c r="N148" t="n">
+        <v>59.15046557780042</v>
+      </c>
+      <c r="O148" t="n">
+        <v>45.11539722545171</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-14.03506835234871</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>895</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>3.895978450775146</v>
+      </c>
+      <c r="E149" t="n">
+        <v>37.66235165001134</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>40.35251384532065</v>
+      </c>
+      <c r="H149" t="n">
+        <v>51</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-13.72912410850691</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>10</v>
+      </c>
+      <c r="M149" t="n">
+        <v>6.864583740032231</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2.690162195309313</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-30.79776790997911</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-33.48793010528842</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>929</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>4.676619529724121</v>
+      </c>
+      <c r="E150" t="n">
+        <v>40.64921404684663</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>45.1314409697488</v>
+      </c>
+      <c r="H150" t="n">
+        <v>52</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-4.018539555761115</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>4.482226922902171</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>975</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>5.905406951904297</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-12.60710130763074</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25.70381039729592</v>
+      </c>
+      <c r="H151" t="n">
+        <v>36</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-15.66707240572395</v>
+      </c>
+      <c r="J151" t="n">
+        <v>51</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>14</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2.9375828048786</v>
+      </c>
+      <c r="N151" t="n">
+        <v>38.31091170492666</v>
+      </c>
+      <c r="O151" t="n">
+        <v>15.54468411250934</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-22.76622759241732</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>7.119738101959229</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-22.70615309326334</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4.263969428422374</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-38.78171285954064</v>
+      </c>
+      <c r="J152" t="n">
+        <v>33</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>14</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-9.746186719556462</v>
+      </c>
+      <c r="N152" t="n">
+        <v>26.97012252168571</v>
+      </c>
+      <c r="O152" t="n">
+        <v>12.95996637370688</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-14.01015614797884</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>5.510447502136231</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-26.94491792576933</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>20.58876785508274</v>
+      </c>
+      <c r="H153" t="n">
+        <v>33</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-48.01583636223214</v>
+      </c>
+      <c r="J153" t="n">
+        <v>47</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>39</v>
+      </c>
+      <c r="M153" t="n">
+        <v>11.22920886246276</v>
+      </c>
+      <c r="N153" t="n">
+        <v>47.53368578085207</v>
+      </c>
+      <c r="O153" t="n">
+        <v>38.17412678823209</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-9.359558992619979</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>5.770443916320801</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-37.91449207362593</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>15.15545151271592</v>
+      </c>
+      <c r="H154" t="n">
+        <v>14</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-50.358064505543</v>
+      </c>
+      <c r="J154" t="n">
+        <v>28</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>20</v>
+      </c>
+      <c r="M154" t="n">
+        <v>6.217602151403074</v>
+      </c>
+      <c r="N154" t="n">
+        <v>53.06994358634185</v>
+      </c>
+      <c r="O154" t="n">
+        <v>44.13209422502901</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-8.937849361312843</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>4.131801605224609</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.5770440585453</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>43.78431997105452</v>
+      </c>
+      <c r="H155" t="n">
+        <v>30</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-7.88955859745869</v>
+      </c>
+      <c r="J155" t="n">
+        <v>8</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>8</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-4.142023511554981</v>
+      </c>
+      <c r="N155" t="n">
+        <v>24.20727591250921</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-23.71906757010029</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-47.9263434826095</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>4.685968399047852</v>
+      </c>
+      <c r="E156" t="n">
+        <v>39.4237191758212</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>48.92571872428061</v>
+      </c>
+      <c r="H156" t="n">
+        <v>43</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-7.478253971488461</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>26</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-1.847537667947331</v>
+      </c>
+      <c r="N156" t="n">
+        <v>9.501999548459409</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-41.27125684376853</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-50.77325639222794</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>4.979350566864014</v>
+      </c>
+      <c r="E157" t="n">
+        <v>21.40692969229937</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>40.15105029790655</v>
+      </c>
+      <c r="H157" t="n">
+        <v>39</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-11.78222155444492</v>
+      </c>
+      <c r="J157" t="n">
+        <v>33</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>22</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-7.630657733262916</v>
+      </c>
+      <c r="N157" t="n">
+        <v>18.74412060560718</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-29.03758742556229</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-47.78170803116947</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>5.315964698791504</v>
+      </c>
+      <c r="E158" t="n">
+        <v>30.20787941859925</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>37.60604314097986</v>
+      </c>
+      <c r="H158" t="n">
+        <v>50</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-17.36829155200772</v>
+      </c>
+      <c r="J158" t="n">
+        <v>27</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>16</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-13.47961041176723</v>
+      </c>
+      <c r="N158" t="n">
+        <v>7.398163722380609</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-43.68748983036647</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-51.08565355274709</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>6.884422779083252</v>
+      </c>
+      <c r="E159" t="n">
+        <v>17.09401253566968</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>21.12274826262031</v>
+      </c>
+      <c r="H159" t="n">
+        <v>33</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.8534363885978881</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>4.028735726950625</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>7.411224842071533</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.56795849307044</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>30.55081295341386</v>
+      </c>
+      <c r="H160" t="n">
+        <v>50</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-6.198803268749335</v>
+      </c>
+      <c r="J160" t="n">
+        <v>25</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>4.982854460343422</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1307</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>8.419825553894043</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20.3978286130196</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>29.34603848217476</v>
+      </c>
+      <c r="H161" t="n">
+        <v>45</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-4.276319607638312</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>8.948209869155157</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>10.32551574707031</v>
+      </c>
+      <c r="E162" t="n">
+        <v>13.11783925650182</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.80485168311184</v>
+      </c>
+      <c r="H162" t="n">
+        <v>43</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-18.4695398171149</v>
+      </c>
+      <c r="J162" t="n">
+        <v>19</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>19</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-5.417098300115431</v>
+      </c>
+      <c r="N162" t="n">
+        <v>12.68701242661002</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-18.53493755661725</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-31.22194998322727</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6283,7 +8377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6496,40 +8590,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.44186046511628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.71936511602987</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.5770440585453</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31.03974373961862</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.51507659458574</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-17.38970052409066</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.79571147855588</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83.72093023255815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.47222222222222</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.234729992837837</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>18.09072920172153</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>18.93472769060165</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>30.70634559522196</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>33.11157803130948</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-16.09055010830324</v>
       </c>
     </row>
